--- a/data/기온예측.xlsx
+++ b/data/기온예측.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2025\0. 스터디\2025\streamlit_study\사업계획_공급량예측_상품별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77CA4AA3-E29D-475C-B3AC-486C52CF2080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285F9907-946E-4591-9F55-FDA31D44FDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C90C0E77-5868-47F7-AD40-447DEE8C1EB1}"/>
   </bookViews>
@@ -36,12 +36,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>날짜</t>
   </si>
   <si>
     <t>평균기온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추세분석(지수평활법)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +114,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -125,7 +135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,6 +168,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,26 +508,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB07CAA-0875-49B7-8BEC-CB688CAA6154}">
   <dimension ref="A1:C5723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="J166" sqref="J166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B179" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>41275</v>
       </c>
@@ -522,7 +541,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>41306</v>
       </c>
@@ -530,7 +549,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>41334</v>
       </c>
@@ -538,7 +557,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>41365</v>
       </c>
@@ -546,7 +565,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>41395</v>
       </c>
@@ -554,7 +573,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>41426</v>
       </c>
@@ -562,7 +581,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>41456</v>
       </c>
@@ -570,7 +589,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>41487</v>
       </c>
@@ -578,7 +597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>41518</v>
       </c>
@@ -586,7 +605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>41548</v>
       </c>
@@ -594,7 +613,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>41579</v>
       </c>
@@ -602,7 +621,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>41609</v>
       </c>
@@ -610,7 +629,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>41640</v>
       </c>
@@ -618,7 +637,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>41671</v>
       </c>
@@ -626,7 +645,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>41699</v>
       </c>
@@ -1781,6 +1800,9 @@
       <c r="B158" s="8">
         <v>1.5301075268817204</v>
       </c>
+      <c r="C158" s="11">
+        <v>1.831</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
@@ -1789,6 +1811,9 @@
       <c r="B159" s="8">
         <v>3.6761494252873557</v>
       </c>
+      <c r="C159" s="11">
+        <v>3.6059999999999999</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
@@ -1797,314 +1822,416 @@
       <c r="B160" s="8">
         <v>9.9612903225806466</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160" s="11">
+        <v>10.356</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>46113</v>
       </c>
       <c r="B161" s="8">
         <v>15.315555555555553</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161" s="11">
+        <v>15.930999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>46143</v>
       </c>
       <c r="B162" s="8">
         <v>18.938709677419357</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162" s="11">
+        <v>19.831</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>46174</v>
       </c>
       <c r="B163" s="8">
         <v>24.47</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163" s="11">
+        <v>24.881</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>46204</v>
       </c>
       <c r="B164" s="8">
         <v>27.497849462365593</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164" s="11">
+        <v>27.956</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>46235</v>
       </c>
       <c r="B165" s="8">
         <v>28.44086021505376</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165" s="11">
+        <v>28.530999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>46266</v>
       </c>
       <c r="B166" s="8">
         <v>24.793333333333333</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166" s="11">
+        <v>24.146999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>46296</v>
       </c>
       <c r="B167" s="8">
         <v>16.633333333333336</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167" s="11">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>46327</v>
       </c>
       <c r="B168" s="8">
         <v>10.166666666666668</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168" s="11">
+        <v>10.847</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>46357</v>
       </c>
       <c r="B169" s="8">
         <v>3.4784946236559144</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169" s="11">
+        <v>3.0139999999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>46388</v>
       </c>
       <c r="B170" s="8">
         <v>1.7401433691756274</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170" s="11">
+        <v>2.0129999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>46419</v>
       </c>
       <c r="B171" s="8">
         <v>3.4348659003831408</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171" s="11">
+        <v>3.7879999999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>46447</v>
       </c>
       <c r="B172" s="8">
         <v>9.3483870967741947</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172" s="11">
+        <v>10.538</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>46478</v>
       </c>
       <c r="B173" s="8">
         <v>15.487407407407405</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173" s="11">
+        <v>16.113</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>46508</v>
       </c>
       <c r="B174" s="8">
         <v>18.818279569892479</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174" s="11">
+        <v>20.013000000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>46539</v>
       </c>
       <c r="B175" s="8">
         <v>24.626666666666665</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175" s="11">
+        <v>25.062999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>46569</v>
       </c>
       <c r="B176" s="8">
         <v>27.763799283154125</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176" s="11">
+        <v>28.138000000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>46600</v>
       </c>
       <c r="B177" s="8">
         <v>28.754480286738346</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177" s="11">
+        <v>28.713000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>46631</v>
       </c>
       <c r="B178" s="8">
         <v>25.224444444444444</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178" s="11">
+        <v>24.329000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>46661</v>
       </c>
       <c r="B179" s="8">
         <v>16.87777777777778</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179" s="11">
+        <v>16.863</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>46692</v>
       </c>
       <c r="B180" s="8">
         <v>10.488888888888891</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180" s="11">
+        <v>11.029</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>46722</v>
       </c>
       <c r="B181" s="8">
         <v>3.4713261648745526</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181" s="11">
+        <v>3.1960000000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>46753</v>
       </c>
       <c r="B182" s="8">
         <v>1.5427718040621266</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182" s="11">
+        <v>2.1949999999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>46784</v>
       </c>
       <c r="B183" s="8">
         <v>2.7786717752234988</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183" s="11">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>46813</v>
       </c>
       <c r="B184" s="8">
         <v>9.6225806451612925</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C184" s="11">
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>46844</v>
       </c>
       <c r="B185" s="8">
         <v>15.232098765432097</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185" s="11">
+        <v>16.295000000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>46874</v>
       </c>
       <c r="B186" s="8">
         <v>18.629749103942657</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186" s="11">
+        <v>20.195</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>46905</v>
       </c>
       <c r="B187" s="8">
         <v>24.635555555555555</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C187" s="11">
+        <v>25.245000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>46935</v>
       </c>
       <c r="B188" s="8">
         <v>27.747431302270012</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C188" s="11">
+        <v>28.32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>46966</v>
       </c>
       <c r="B189" s="8">
         <v>28.650059737156507</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C189" s="11">
+        <v>28.895</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>46997</v>
       </c>
       <c r="B190" s="8">
         <v>25.152592592592594</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190" s="11">
+        <v>24.510999999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>47027</v>
       </c>
       <c r="B191" s="8">
         <v>16.837037037037039</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191" s="11">
+        <v>17.045000000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>47058</v>
       </c>
       <c r="B192" s="8">
         <v>10.435185185185187</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C192" s="11">
+        <v>11.211</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>47088</v>
       </c>
       <c r="B193" s="8">
         <v>3.4725209080047796</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C193" s="11">
+        <v>3.3780000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="9"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="9"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="9"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="9"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="9"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="9"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="9"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="9"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="9"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="9"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="9"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="9"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="9"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="9"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="9"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">

--- a/data/기온예측.xlsx
+++ b/data/기온예측.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2025\0. 스터디\2025\streamlit_study\사업계획_공급량예측_상품별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285F9907-946E-4591-9F55-FDA31D44FDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7204FE9F-F8FA-4B11-83FD-BED5C890AEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C90C0E77-5868-47F7-AD40-447DEE8C1EB1}"/>
   </bookViews>
@@ -509,10 +509,10 @@
   <dimension ref="A1:C5723"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C196" sqref="C196"/>
+      <selection pane="bottomRight" activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1809,7 +1809,7 @@
         <v>46054</v>
       </c>
       <c r="B159" s="8">
-        <v>3.6761494252873557</v>
+        <v>4.8678160919540225</v>
       </c>
       <c r="C159" s="11">
         <v>3.6059999999999999</v>
@@ -1941,7 +1941,7 @@
         <v>46419</v>
       </c>
       <c r="B171" s="8">
-        <v>3.4348659003831408</v>
+        <v>4.8904214559386965</v>
       </c>
       <c r="C171" s="11">
         <v>3.7879999999999998</v>
@@ -2073,7 +2073,7 @@
         <v>46784</v>
       </c>
       <c r="B183" s="8">
-        <v>2.7786717752234988</v>
+        <v>5.0538952745849288</v>
       </c>
       <c r="C183" s="11">
         <v>3.97</v>

--- a/data/기온예측.xlsx
+++ b/data/기온예측.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2025\0. 스터디\2025\streamlit_study\사업계획_공급량예측_상품별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7204FE9F-F8FA-4B11-83FD-BED5C890AEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E31E5D-F41E-4524-BF17-3231F39BB39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C90C0E77-5868-47F7-AD40-447DEE8C1EB1}"/>
   </bookViews>
@@ -509,10 +509,10 @@
   <dimension ref="A1:C5723"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E170" sqref="E170"/>
+      <selection pane="bottomRight" activeCell="B182" sqref="B182:B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1820,7 +1820,7 @@
         <v>46082</v>
       </c>
       <c r="B160" s="8">
-        <v>9.9612903225806466</v>
+        <v>10.352688172043012</v>
       </c>
       <c r="C160" s="11">
         <v>10.356</v>
@@ -1952,7 +1952,7 @@
         <v>46447</v>
       </c>
       <c r="B172" s="8">
-        <v>9.3483870967741947</v>
+        <v>10.570250896057347</v>
       </c>
       <c r="C172" s="11">
         <v>10.538</v>
@@ -2084,7 +2084,7 @@
         <v>46813</v>
       </c>
       <c r="B184" s="8">
-        <v>9.6225806451612925</v>
+        <v>10.160334528076463</v>
       </c>
       <c r="C184" s="11">
         <v>10.72</v>

--- a/data/기온예측.xlsx
+++ b/data/기온예측.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2025\0. 스터디\2025\streamlit_study\사업계획_공급량예측_상품별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E31E5D-F41E-4524-BF17-3231F39BB39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6DD1D94-DAB8-4EC8-A4C2-BF18483F1A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C90C0E77-5868-47F7-AD40-447DEE8C1EB1}"/>
   </bookViews>
@@ -89,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +120,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -135,7 +147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -170,6 +182,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,10 +527,10 @@
   <dimension ref="A1:C5723"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B182" sqref="B182:B193"/>
+      <selection pane="bottomRight" activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1674,7 +1692,7 @@
       <c r="A143" s="4">
         <v>45566</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="12">
         <v>17</v>
       </c>
       <c r="C143" s="5"/>
@@ -1773,7 +1791,7 @@
       <c r="A155" s="6">
         <v>45931</v>
       </c>
-      <c r="B155" s="8">
+      <c r="B155" s="12">
         <v>17.000000000000004</v>
       </c>
     </row>
@@ -1797,8 +1815,8 @@
       <c r="A158" s="6">
         <v>46023</v>
       </c>
-      <c r="B158" s="8">
-        <v>1.5301075268817204</v>
+      <c r="B158" s="13">
+        <v>1.2780645161290323</v>
       </c>
       <c r="C158" s="11">
         <v>1.831</v>
@@ -1808,8 +1826,8 @@
       <c r="A159" s="4">
         <v>46054</v>
       </c>
-      <c r="B159" s="8">
-        <v>4.8678160919540225</v>
+      <c r="B159" s="13">
+        <v>4.7</v>
       </c>
       <c r="C159" s="11">
         <v>3.6059999999999999</v>
@@ -1819,8 +1837,8 @@
       <c r="A160" s="6">
         <v>46082</v>
       </c>
-      <c r="B160" s="8">
-        <v>10.352688172043012</v>
+      <c r="B160" s="13">
+        <v>9.7895161290322577</v>
       </c>
       <c r="C160" s="11">
         <v>10.356</v>
@@ -1830,8 +1848,8 @@
       <c r="A161" s="6">
         <v>46113</v>
       </c>
-      <c r="B161" s="8">
-        <v>15.315555555555553</v>
+      <c r="B161" s="13">
+        <v>15.198666666666664</v>
       </c>
       <c r="C161" s="11">
         <v>15.930999999999999</v>
@@ -1841,8 +1859,8 @@
       <c r="A162" s="4">
         <v>46143</v>
       </c>
-      <c r="B162" s="8">
-        <v>18.938709677419357</v>
+      <c r="B162" s="13">
+        <v>19.095967741935485</v>
       </c>
       <c r="C162" s="11">
         <v>19.831</v>
@@ -1852,8 +1870,8 @@
       <c r="A163" s="6">
         <v>46174</v>
       </c>
-      <c r="B163" s="8">
-        <v>24.47</v>
+      <c r="B163" s="13">
+        <v>24.339999999999996</v>
       </c>
       <c r="C163" s="11">
         <v>24.881</v>
@@ -1863,8 +1881,8 @@
       <c r="A164" s="6">
         <v>46204</v>
       </c>
-      <c r="B164" s="8">
-        <v>27.497849462365593</v>
+      <c r="B164" s="13">
+        <v>27.282580645161296</v>
       </c>
       <c r="C164" s="11">
         <v>27.956</v>
@@ -1874,8 +1892,8 @@
       <c r="A165" s="4">
         <v>46235</v>
       </c>
-      <c r="B165" s="8">
-        <v>28.44086021505376</v>
+      <c r="B165" s="13">
+        <v>27.730967741935483</v>
       </c>
       <c r="C165" s="11">
         <v>28.530999999999999</v>
@@ -1885,8 +1903,8 @@
       <c r="A166" s="6">
         <v>46266</v>
       </c>
-      <c r="B166" s="8">
-        <v>24.793333333333333</v>
+      <c r="B166" s="13">
+        <v>22.35</v>
       </c>
       <c r="C166" s="11">
         <v>24.146999999999998</v>
@@ -1896,8 +1914,8 @@
       <c r="A167" s="6">
         <v>46296</v>
       </c>
-      <c r="B167" s="8">
-        <v>16.633333333333336</v>
+      <c r="B167" s="13">
+        <v>15.85</v>
       </c>
       <c r="C167" s="11">
         <v>16.68</v>
@@ -1907,8 +1925,8 @@
       <c r="A168" s="4">
         <v>46327</v>
       </c>
-      <c r="B168" s="8">
-        <v>10.166666666666668</v>
+      <c r="B168" s="13">
+        <v>9.9500000000000011</v>
       </c>
       <c r="C168" s="11">
         <v>10.847</v>
@@ -1918,8 +1936,8 @@
       <c r="A169" s="6">
         <v>46357</v>
       </c>
-      <c r="B169" s="8">
-        <v>3.4784946236559144</v>
+      <c r="B169" s="13">
+        <v>2.35</v>
       </c>
       <c r="C169" s="11">
         <v>3.0139999999999998</v>

--- a/data/기온예측.xlsx
+++ b/data/기온예측.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2025\0. 스터디\2025\streamlit_study\사업계획_공급량예측_상품별\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2025\0. 스터디\2025\streamlit_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6DD1D94-DAB8-4EC8-A4C2-BF18483F1A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2245918C-469D-4219-B3ED-355A052D45D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C90C0E77-5868-47F7-AD40-447DEE8C1EB1}"/>
   </bookViews>
@@ -89,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,12 +126,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -147,7 +141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,9 +179,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +521,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E164" sqref="E164"/>
+      <selection pane="bottomRight" activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1815,8 +1806,8 @@
       <c r="A158" s="6">
         <v>46023</v>
       </c>
-      <c r="B158" s="13">
-        <v>1.2780645161290323</v>
+      <c r="B158" s="8">
+        <v>1.5301075268817204</v>
       </c>
       <c r="C158" s="11">
         <v>1.831</v>
@@ -1826,8 +1817,8 @@
       <c r="A159" s="4">
         <v>46054</v>
       </c>
-      <c r="B159" s="13">
-        <v>4.7</v>
+      <c r="B159" s="8">
+        <v>4.8678160919540225</v>
       </c>
       <c r="C159" s="11">
         <v>3.6059999999999999</v>
@@ -1837,8 +1828,8 @@
       <c r="A160" s="6">
         <v>46082</v>
       </c>
-      <c r="B160" s="13">
-        <v>9.7895161290322577</v>
+      <c r="B160" s="8">
+        <v>10.352688172043012</v>
       </c>
       <c r="C160" s="11">
         <v>10.356</v>
@@ -1848,8 +1839,8 @@
       <c r="A161" s="6">
         <v>46113</v>
       </c>
-      <c r="B161" s="13">
-        <v>15.198666666666664</v>
+      <c r="B161" s="8">
+        <v>15.315555555555553</v>
       </c>
       <c r="C161" s="11">
         <v>15.930999999999999</v>
@@ -1859,8 +1850,8 @@
       <c r="A162" s="4">
         <v>46143</v>
       </c>
-      <c r="B162" s="13">
-        <v>19.095967741935485</v>
+      <c r="B162" s="8">
+        <v>18.938709677419357</v>
       </c>
       <c r="C162" s="11">
         <v>19.831</v>
@@ -1870,8 +1861,8 @@
       <c r="A163" s="6">
         <v>46174</v>
       </c>
-      <c r="B163" s="13">
-        <v>24.339999999999996</v>
+      <c r="B163" s="8">
+        <v>24.47</v>
       </c>
       <c r="C163" s="11">
         <v>24.881</v>
@@ -1881,8 +1872,8 @@
       <c r="A164" s="6">
         <v>46204</v>
       </c>
-      <c r="B164" s="13">
-        <v>27.282580645161296</v>
+      <c r="B164" s="8">
+        <v>27.497849462365593</v>
       </c>
       <c r="C164" s="11">
         <v>27.956</v>
@@ -1892,8 +1883,8 @@
       <c r="A165" s="4">
         <v>46235</v>
       </c>
-      <c r="B165" s="13">
-        <v>27.730967741935483</v>
+      <c r="B165" s="8">
+        <v>28.44086021505376</v>
       </c>
       <c r="C165" s="11">
         <v>28.530999999999999</v>
@@ -1903,8 +1894,8 @@
       <c r="A166" s="6">
         <v>46266</v>
       </c>
-      <c r="B166" s="13">
-        <v>22.35</v>
+      <c r="B166" s="8">
+        <v>24.793333333333333</v>
       </c>
       <c r="C166" s="11">
         <v>24.146999999999998</v>
@@ -1914,8 +1905,8 @@
       <c r="A167" s="6">
         <v>46296</v>
       </c>
-      <c r="B167" s="13">
-        <v>15.85</v>
+      <c r="B167" s="8">
+        <v>16.633333333333336</v>
       </c>
       <c r="C167" s="11">
         <v>16.68</v>
@@ -1925,8 +1916,8 @@
       <c r="A168" s="4">
         <v>46327</v>
       </c>
-      <c r="B168" s="13">
-        <v>9.9500000000000011</v>
+      <c r="B168" s="8">
+        <v>10.166666666666668</v>
       </c>
       <c r="C168" s="11">
         <v>10.847</v>
@@ -1936,8 +1927,8 @@
       <c r="A169" s="6">
         <v>46357</v>
       </c>
-      <c r="B169" s="13">
-        <v>2.35</v>
+      <c r="B169" s="8">
+        <v>3.4784946236559144</v>
       </c>
       <c r="C169" s="11">
         <v>3.0139999999999998</v>

--- a/data/기온예측.xlsx
+++ b/data/기온예측.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2025\0. 스터디\2025\streamlit_study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2025\0. 스터디\2025\streamlit_study\사업계획_공급량예측_상품별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2245918C-469D-4219-B3ED-355A052D45D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF8470-67DF-425F-BF9B-B7E2B38FAAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C90C0E77-5868-47F7-AD40-447DEE8C1EB1}"/>
   </bookViews>
@@ -141,7 +141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,6 +180,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,7 +524,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C158" sqref="C158"/>
+      <selection pane="bottomRight" activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1806,8 +1809,8 @@
       <c r="A158" s="6">
         <v>46023</v>
       </c>
-      <c r="B158" s="8">
-        <v>1.5301075268817204</v>
+      <c r="B158" s="13">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C158" s="11">
         <v>1.831</v>
@@ -1817,8 +1820,8 @@
       <c r="A159" s="4">
         <v>46054</v>
       </c>
-      <c r="B159" s="8">
-        <v>4.8678160919540225</v>
+      <c r="B159" s="13">
+        <v>4.7</v>
       </c>
       <c r="C159" s="11">
         <v>3.6059999999999999</v>
@@ -1828,8 +1831,8 @@
       <c r="A160" s="6">
         <v>46082</v>
       </c>
-      <c r="B160" s="8">
-        <v>10.352688172043012</v>
+      <c r="B160" s="13">
+        <v>9.7895161290322577</v>
       </c>
       <c r="C160" s="11">
         <v>10.356</v>
@@ -1839,8 +1842,8 @@
       <c r="A161" s="6">
         <v>46113</v>
       </c>
-      <c r="B161" s="8">
-        <v>15.315555555555553</v>
+      <c r="B161" s="13">
+        <v>15.198666666666661</v>
       </c>
       <c r="C161" s="11">
         <v>15.930999999999999</v>
@@ -1850,8 +1853,8 @@
       <c r="A162" s="4">
         <v>46143</v>
       </c>
-      <c r="B162" s="8">
-        <v>18.938709677419357</v>
+      <c r="B162" s="13">
+        <v>19.095967741935489</v>
       </c>
       <c r="C162" s="11">
         <v>19.831</v>
@@ -1861,8 +1864,8 @@
       <c r="A163" s="6">
         <v>46174</v>
       </c>
-      <c r="B163" s="8">
-        <v>24.47</v>
+      <c r="B163" s="13">
+        <v>24.34</v>
       </c>
       <c r="C163" s="11">
         <v>24.881</v>
@@ -1872,8 +1875,8 @@
       <c r="A164" s="6">
         <v>46204</v>
       </c>
-      <c r="B164" s="8">
-        <v>27.497849462365593</v>
+      <c r="B164" s="13">
+        <v>27.2825806451613</v>
       </c>
       <c r="C164" s="11">
         <v>27.956</v>
@@ -1883,8 +1886,8 @@
       <c r="A165" s="4">
         <v>46235</v>
       </c>
-      <c r="B165" s="8">
-        <v>28.44086021505376</v>
+      <c r="B165" s="13">
+        <v>27.73096774193548</v>
       </c>
       <c r="C165" s="11">
         <v>28.530999999999999</v>
@@ -1894,8 +1897,8 @@
       <c r="A166" s="6">
         <v>46266</v>
       </c>
-      <c r="B166" s="8">
-        <v>24.793333333333333</v>
+      <c r="B166" s="13">
+        <v>22.35</v>
       </c>
       <c r="C166" s="11">
         <v>24.146999999999998</v>
@@ -1905,8 +1908,8 @@
       <c r="A167" s="6">
         <v>46296</v>
       </c>
-      <c r="B167" s="8">
-        <v>16.633333333333336</v>
+      <c r="B167" s="13">
+        <v>15.85</v>
       </c>
       <c r="C167" s="11">
         <v>16.68</v>
@@ -1916,8 +1919,8 @@
       <c r="A168" s="4">
         <v>46327</v>
       </c>
-      <c r="B168" s="8">
-        <v>10.166666666666668</v>
+      <c r="B168" s="13">
+        <v>9.9500000000000011</v>
       </c>
       <c r="C168" s="11">
         <v>10.847</v>
@@ -1927,8 +1930,8 @@
       <c r="A169" s="6">
         <v>46357</v>
       </c>
-      <c r="B169" s="8">
-        <v>3.4784946236559144</v>
+      <c r="B169" s="13">
+        <v>2.35</v>
       </c>
       <c r="C169" s="11">
         <v>3.0139999999999998</v>

--- a/data/기온예측.xlsx
+++ b/data/기온예측.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2025\0. 스터디\2025\streamlit_study\사업계획_공급량예측_상품별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF8470-67DF-425F-BF9B-B7E2B38FAAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDC5503-D8E3-47E5-8EB9-B9AFB1D23506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C90C0E77-5868-47F7-AD40-447DEE8C1EB1}"/>
   </bookViews>
@@ -89,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +123,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,8 +187,8 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,10 +527,10 @@
   <dimension ref="A1:C5723"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G166" sqref="G166"/>
+      <selection pane="bottomRight" activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1809,8 +1815,8 @@
       <c r="A158" s="6">
         <v>46023</v>
       </c>
-      <c r="B158" s="13">
-        <v>1.1000000000000001</v>
+      <c r="B158" s="8">
+        <v>1.5301075268817204</v>
       </c>
       <c r="C158" s="11">
         <v>1.831</v>
@@ -1820,8 +1826,8 @@
       <c r="A159" s="4">
         <v>46054</v>
       </c>
-      <c r="B159" s="13">
-        <v>4.7</v>
+      <c r="B159" s="8">
+        <v>4.8678160919540225</v>
       </c>
       <c r="C159" s="11">
         <v>3.6059999999999999</v>
@@ -1831,8 +1837,8 @@
       <c r="A160" s="6">
         <v>46082</v>
       </c>
-      <c r="B160" s="13">
-        <v>9.7895161290322577</v>
+      <c r="B160" s="8">
+        <v>10.352688172043012</v>
       </c>
       <c r="C160" s="11">
         <v>10.356</v>
@@ -1842,8 +1848,8 @@
       <c r="A161" s="6">
         <v>46113</v>
       </c>
-      <c r="B161" s="13">
-        <v>15.198666666666661</v>
+      <c r="B161" s="8">
+        <v>15.315555555555553</v>
       </c>
       <c r="C161" s="11">
         <v>15.930999999999999</v>
@@ -1853,8 +1859,8 @@
       <c r="A162" s="4">
         <v>46143</v>
       </c>
-      <c r="B162" s="13">
-        <v>19.095967741935489</v>
+      <c r="B162" s="8">
+        <v>18.938709677419357</v>
       </c>
       <c r="C162" s="11">
         <v>19.831</v>
@@ -1864,8 +1870,8 @@
       <c r="A163" s="6">
         <v>46174</v>
       </c>
-      <c r="B163" s="13">
-        <v>24.34</v>
+      <c r="B163" s="8">
+        <v>24.47</v>
       </c>
       <c r="C163" s="11">
         <v>24.881</v>
@@ -1875,8 +1881,8 @@
       <c r="A164" s="6">
         <v>46204</v>
       </c>
-      <c r="B164" s="13">
-        <v>27.2825806451613</v>
+      <c r="B164" s="8">
+        <v>27.497849462365593</v>
       </c>
       <c r="C164" s="11">
         <v>27.956</v>
@@ -1886,8 +1892,8 @@
       <c r="A165" s="4">
         <v>46235</v>
       </c>
-      <c r="B165" s="13">
-        <v>27.73096774193548</v>
+      <c r="B165" s="8">
+        <v>28.44086021505376</v>
       </c>
       <c r="C165" s="11">
         <v>28.530999999999999</v>
@@ -1897,8 +1903,8 @@
       <c r="A166" s="6">
         <v>46266</v>
       </c>
-      <c r="B166" s="13">
-        <v>22.35</v>
+      <c r="B166" s="8">
+        <v>24.793333333333333</v>
       </c>
       <c r="C166" s="11">
         <v>24.146999999999998</v>
@@ -1908,8 +1914,8 @@
       <c r="A167" s="6">
         <v>46296</v>
       </c>
-      <c r="B167" s="13">
-        <v>15.85</v>
+      <c r="B167" s="8">
+        <v>16.633333333333336</v>
       </c>
       <c r="C167" s="11">
         <v>16.68</v>
@@ -1919,8 +1925,8 @@
       <c r="A168" s="4">
         <v>46327</v>
       </c>
-      <c r="B168" s="13">
-        <v>9.9500000000000011</v>
+      <c r="B168" s="8">
+        <v>10.166666666666668</v>
       </c>
       <c r="C168" s="11">
         <v>10.847</v>
@@ -1930,8 +1936,8 @@
       <c r="A169" s="6">
         <v>46357</v>
       </c>
-      <c r="B169" s="13">
-        <v>2.35</v>
+      <c r="B169" s="8">
+        <v>3.4784946236559144</v>
       </c>
       <c r="C169" s="11">
         <v>3.0139999999999998</v>
@@ -1941,8 +1947,8 @@
       <c r="A170" s="6">
         <v>46388</v>
       </c>
-      <c r="B170" s="8">
-        <v>1.7401433691756274</v>
+      <c r="B170" s="13">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C170" s="11">
         <v>2.0129999999999999</v>
@@ -1952,8 +1958,8 @@
       <c r="A171" s="4">
         <v>46419</v>
       </c>
-      <c r="B171" s="8">
-        <v>4.8904214559386965</v>
+      <c r="B171" s="13">
+        <v>4.7</v>
       </c>
       <c r="C171" s="11">
         <v>3.7879999999999998</v>
@@ -1963,8 +1969,8 @@
       <c r="A172" s="6">
         <v>46447</v>
       </c>
-      <c r="B172" s="8">
-        <v>10.570250896057347</v>
+      <c r="B172" s="13">
+        <v>9.7895161290322577</v>
       </c>
       <c r="C172" s="11">
         <v>10.538</v>
@@ -1974,8 +1980,8 @@
       <c r="A173" s="6">
         <v>46478</v>
       </c>
-      <c r="B173" s="8">
-        <v>15.487407407407405</v>
+      <c r="B173" s="13">
+        <v>15.198666666666661</v>
       </c>
       <c r="C173" s="11">
         <v>16.113</v>
@@ -1985,8 +1991,8 @@
       <c r="A174" s="4">
         <v>46508</v>
       </c>
-      <c r="B174" s="8">
-        <v>18.818279569892479</v>
+      <c r="B174" s="13">
+        <v>19.095967741935489</v>
       </c>
       <c r="C174" s="11">
         <v>20.013000000000002</v>
@@ -1996,8 +2002,8 @@
       <c r="A175" s="6">
         <v>46539</v>
       </c>
-      <c r="B175" s="8">
-        <v>24.626666666666665</v>
+      <c r="B175" s="13">
+        <v>24.34</v>
       </c>
       <c r="C175" s="11">
         <v>25.062999999999999</v>
@@ -2007,8 +2013,8 @@
       <c r="A176" s="6">
         <v>46569</v>
       </c>
-      <c r="B176" s="8">
-        <v>27.763799283154125</v>
+      <c r="B176" s="13">
+        <v>27.2825806451613</v>
       </c>
       <c r="C176" s="11">
         <v>28.138000000000002</v>
@@ -2018,8 +2024,8 @@
       <c r="A177" s="4">
         <v>46600</v>
       </c>
-      <c r="B177" s="8">
-        <v>28.754480286738346</v>
+      <c r="B177" s="13">
+        <v>27.73096774193548</v>
       </c>
       <c r="C177" s="11">
         <v>28.713000000000001</v>
@@ -2029,8 +2035,8 @@
       <c r="A178" s="6">
         <v>46631</v>
       </c>
-      <c r="B178" s="8">
-        <v>25.224444444444444</v>
+      <c r="B178" s="13">
+        <v>22.35</v>
       </c>
       <c r="C178" s="11">
         <v>24.329000000000001</v>
@@ -2040,8 +2046,8 @@
       <c r="A179" s="6">
         <v>46661</v>
       </c>
-      <c r="B179" s="8">
-        <v>16.87777777777778</v>
+      <c r="B179" s="13">
+        <v>15.85</v>
       </c>
       <c r="C179" s="11">
         <v>16.863</v>
@@ -2051,8 +2057,8 @@
       <c r="A180" s="4">
         <v>46692</v>
       </c>
-      <c r="B180" s="8">
-        <v>10.488888888888891</v>
+      <c r="B180" s="13">
+        <v>9.9500000000000011</v>
       </c>
       <c r="C180" s="11">
         <v>11.029</v>
@@ -2062,8 +2068,8 @@
       <c r="A181" s="6">
         <v>46722</v>
       </c>
-      <c r="B181" s="8">
-        <v>3.4713261648745526</v>
+      <c r="B181" s="13">
+        <v>2.35</v>
       </c>
       <c r="C181" s="11">
         <v>3.1960000000000002</v>
